--- a/data/replications/Fincher2008/suppData.xlsx
+++ b/data/replications/Fincher2008/suppData.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Postdoc\Projects\crossCountryCorrelations\data\replications\Fincher2008\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoa-my.sharepoint.com/personal/scla896_uoa_auckland_ac_nz/Documents/Postdoc/Projects/crossNationalCorrelations/1. Code/data/replications/Fincher2008/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_4932E10F34086DFF360B28E2F788BDEEAE465B5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{056E1A63-3D03-4C1F-A2D0-09E16FE40C90}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6470" tabRatio="204"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$J$99</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="221">
   <si>
     <t>Albania</t>
   </si>
@@ -679,12 +683,15 @@
   </si>
   <si>
     <t>ZW</t>
+  </si>
+  <si>
+    <t>MY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1056,10 +1063,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1097,86 +1106,74 @@
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
+      <c r="E2" s="2">
+        <v>-0.37</v>
       </c>
       <c r="F2" s="1">
-        <v>24</v>
-      </c>
-      <c r="I2" s="2">
-        <v>5.74</v>
+        <v>28</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2">
-        <v>-7.0000000000000007E-2</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
-        <v>37</v>
-      </c>
-      <c r="G3" s="1">
-        <v>46</v>
-      </c>
-      <c r="H3" s="2">
-        <v>4.8</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2">
-        <v>5.51</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2">
-        <v>-0.2</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2">
-        <v>9</v>
+        <v>4.8</v>
       </c>
       <c r="I4" s="2">
-        <v>4.17</v>
+        <v>5.51</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1213,22 +1210,34 @@
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
       </c>
       <c r="E6" s="2">
-        <v>0.15</v>
+        <v>-0.2</v>
       </c>
       <c r="F6" s="1">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="G6" s="1">
+        <v>90</v>
       </c>
       <c r="H6" s="2">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="I6" s="2">
+        <v>4.17</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1253,146 +1262,146 @@
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>-0.68</v>
+        <v>-0.93</v>
       </c>
       <c r="F8" s="1">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="G8" s="1">
+        <v>75</v>
       </c>
       <c r="H8" s="2">
-        <v>4</v>
+        <v>7.25</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2">
-        <v>-0.93</v>
+        <v>1.27</v>
       </c>
       <c r="F9" s="1">
-        <v>27</v>
-      </c>
-      <c r="G9" s="1">
-        <v>75</v>
-      </c>
-      <c r="H9" s="2">
-        <v>7.25</v>
+        <v>46</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-0.26</v>
+      </c>
+      <c r="F10" s="1">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2">
         <v>5</v>
       </c>
-      <c r="E10" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="F10" s="1">
-        <v>38</v>
-      </c>
-      <c r="I10" s="2">
-        <v>5.47</v>
+      <c r="J10" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2">
-        <v>1.02</v>
+        <v>0.15</v>
       </c>
       <c r="F11" s="1">
-        <v>45</v>
-      </c>
-      <c r="G11" s="1">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H11" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="I11" s="2">
-        <v>5.18</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
       </c>
       <c r="E12" s="2">
-        <v>-0.26</v>
+        <v>0.44</v>
       </c>
       <c r="F12" s="1">
-        <v>30</v>
-      </c>
-      <c r="G12" s="1">
-        <v>30</v>
-      </c>
-      <c r="H12" s="2">
-        <v>5</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="I12" s="2">
+        <v>5.47</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
       </c>
       <c r="E13" s="2">
-        <v>1.27</v>
+        <v>1.02</v>
       </c>
       <c r="F13" s="1">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="G13" s="1">
+        <v>38</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="I13" s="2">
+        <v>5.18</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -1400,121 +1409,109 @@
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2">
-        <v>-1.29</v>
+        <v>-0.68</v>
       </c>
       <c r="F14" s="1">
         <v>26</v>
       </c>
-      <c r="G14" s="1">
-        <v>80</v>
-      </c>
       <c r="H14" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="I14" s="2">
-        <v>4.26</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="2">
-        <v>-0.47</v>
+        <v>-1.29</v>
       </c>
       <c r="F15" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G15" s="1">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="H15" s="2">
-        <v>4.1500000000000004</v>
+        <v>8.5</v>
+      </c>
+      <c r="I15" s="2">
+        <v>4.26</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-1.04</v>
+      </c>
+      <c r="F16" s="1">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>37</v>
-      </c>
       <c r="G16" s="1">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="H16" s="2">
-        <v>2</v>
+        <v>7.9</v>
       </c>
       <c r="I16" s="2">
-        <v>5.8</v>
+        <v>3.97</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
       <c r="E17" s="2">
-        <v>0.35</v>
+        <v>-0.47</v>
       </c>
       <c r="F17" s="1">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G17" s="1">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H17" s="2">
-        <v>2.15</v>
-      </c>
-      <c r="I17" s="2">
-        <v>5.73</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="J17" s="1">
         <v>1</v>
@@ -1522,28 +1519,31 @@
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" s="1">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2</v>
       </c>
       <c r="I18" s="2">
-        <v>5.32</v>
+        <v>5.8</v>
       </c>
       <c r="J18" s="1">
         <v>1</v>
@@ -1551,22 +1551,31 @@
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
       </c>
       <c r="E19" s="2">
-        <v>-0.34</v>
+        <v>0.35</v>
       </c>
       <c r="F19" s="1">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="G19" s="1">
-        <v>33</v>
+        <v>13</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2.15</v>
+      </c>
+      <c r="I19" s="2">
+        <v>5.73</v>
       </c>
       <c r="J19" s="1">
         <v>1</v>
@@ -1574,57 +1583,54 @@
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
       </c>
       <c r="E20" s="2">
-        <v>-0.8</v>
+        <v>0.15</v>
       </c>
       <c r="F20" s="1">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G20" s="1">
-        <v>58</v>
-      </c>
-      <c r="H20" s="2">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="I20" s="2">
+        <v>5.32</v>
       </c>
       <c r="J20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
       <c r="E21" s="2">
-        <v>-0.93</v>
+        <v>-0.8</v>
       </c>
       <c r="F21" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G21" s="1">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="H21" s="2">
-        <v>7.7</v>
-      </c>
-      <c r="I21" s="2">
-        <v>3.53</v>
+        <v>7</v>
       </c>
       <c r="J21" s="1">
         <v>0</v>
@@ -1632,68 +1638,74 @@
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E22" s="2">
-        <v>0.41</v>
+        <v>-0.93</v>
       </c>
       <c r="F22" s="1">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G22" s="1">
-        <v>8</v>
+        <v>67</v>
+      </c>
+      <c r="H22" s="2">
+        <v>7.35</v>
       </c>
       <c r="I22" s="2">
-        <v>5.81</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="J22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E23" s="2">
-        <v>0.54</v>
+        <v>-0.93</v>
       </c>
       <c r="F23" s="1">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="G23" s="1">
+        <v>74</v>
       </c>
       <c r="H23" s="2">
-        <v>4.4000000000000004</v>
+        <v>7.7</v>
       </c>
       <c r="I23" s="2">
-        <v>5.64</v>
+        <v>3.53</v>
       </c>
       <c r="J23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -1702,16 +1714,16 @@
         <v>5</v>
       </c>
       <c r="E24" s="2">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="F24" s="1">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G24" s="1">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I24" s="2">
-        <v>5.35</v>
+        <v>5.81</v>
       </c>
       <c r="J24" s="1">
         <v>1</v>
@@ -1719,74 +1731,83 @@
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
       <c r="E25" s="2">
-        <v>-0.96</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="F25" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G25" s="1">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="H25" s="2">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="I25" s="2">
-        <v>4.08</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
       </c>
       <c r="E26" s="2">
-        <v>-0.55000000000000004</v>
+        <v>0.54</v>
       </c>
       <c r="F26" s="1">
-        <v>25</v>
-      </c>
-      <c r="G26" s="1">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="H26" s="2">
-        <v>4</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I26" s="2">
+        <v>5.64</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
       </c>
       <c r="E27" s="2">
-        <v>0.82</v>
+        <v>0.03</v>
       </c>
       <c r="F27" s="1">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="G27" s="1">
+        <v>51</v>
+      </c>
+      <c r="H27" s="2">
+        <v>5.55</v>
+      </c>
+      <c r="I27" s="2">
+        <v>5.45</v>
       </c>
       <c r="J27" s="1">
         <v>1</v>
@@ -1794,63 +1815,51 @@
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E28" s="2">
-        <v>-0.8</v>
+        <v>0.82</v>
       </c>
       <c r="F28" s="1">
-        <v>25</v>
-      </c>
-      <c r="G28" s="1">
-        <v>63</v>
-      </c>
-      <c r="H28" s="2">
-        <v>7.15</v>
-      </c>
-      <c r="I28" s="2">
-        <v>4.07</v>
+        <v>45</v>
       </c>
       <c r="J28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E29" s="2">
-        <v>-0.51</v>
+        <v>-0.8</v>
       </c>
       <c r="F29" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G29" s="1">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H29" s="2">
-        <v>7.05</v>
+        <v>7.15</v>
       </c>
       <c r="I29" s="2">
-        <v>4.66</v>
+        <v>4.07</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -1858,51 +1867,63 @@
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="E30" s="2">
+        <v>-0.51</v>
       </c>
       <c r="F30" s="1">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="G30" s="1">
+        <v>71</v>
+      </c>
+      <c r="H30" s="2">
+        <v>7.05</v>
       </c>
       <c r="I30" s="2">
-        <v>6.19</v>
+        <v>4.66</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E31" s="2">
-        <v>-0.93</v>
+        <v>-0.96</v>
       </c>
       <c r="F31" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G31" s="1">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="H31" s="2">
-        <v>7.35</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="I31" s="2">
-        <v>4.0199999999999996</v>
+        <v>4.08</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -1910,33 +1931,30 @@
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E32" s="2">
-        <v>1.28</v>
+        <v>-0.8</v>
       </c>
       <c r="F32" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H32" s="2">
-        <v>3</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -1944,69 +1962,63 @@
       <c r="D33" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="2">
-        <v>0.15</v>
-      </c>
       <c r="F33" s="1">
-        <v>30</v>
-      </c>
-      <c r="G33" s="1">
-        <v>35</v>
-      </c>
-      <c r="H33" s="2">
-        <v>5.25</v>
+        <v>28</v>
       </c>
       <c r="I33" s="2">
-        <v>5.27</v>
-      </c>
-      <c r="J33" s="1">
-        <v>1</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E34" s="2">
-        <v>-0.15</v>
+        <v>1.28</v>
       </c>
       <c r="F34" s="1">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H34" s="2">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E35" s="2">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="F35" s="1">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G35" s="1">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="H35" s="2">
+        <v>5.25</v>
       </c>
       <c r="I35" s="2">
-        <v>5.63</v>
+        <v>5.27</v>
       </c>
       <c r="J35" s="1">
         <v>1</v>
@@ -2014,31 +2026,28 @@
     </row>
     <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E36" s="2">
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
       <c r="F36" s="1">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G36" s="1">
-        <v>25</v>
-      </c>
-      <c r="H36" s="2">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="I36" s="2">
-        <v>5.32</v>
+        <v>5.63</v>
       </c>
       <c r="J36" s="1">
         <v>1</v>
@@ -2046,83 +2055,74 @@
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E37" s="2">
-        <v>-0.93</v>
+        <v>-0.15</v>
       </c>
       <c r="F37" s="1">
-        <v>28</v>
-      </c>
-      <c r="G37" s="1">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="H37" s="2">
-        <v>6</v>
-      </c>
-      <c r="I37" s="2">
-        <v>5.25</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>25</v>
       </c>
       <c r="E38" s="2">
-        <v>-1.1599999999999999</v>
+        <v>0.32</v>
       </c>
       <c r="F38" s="1">
         <v>25</v>
       </c>
+      <c r="G38" s="1">
+        <v>25</v>
+      </c>
       <c r="H38" s="2">
-        <v>7</v>
+        <v>4.75</v>
+      </c>
+      <c r="I38" s="2">
+        <v>5.32</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="E39" s="2">
-        <v>0.9</v>
+        <v>-0.34</v>
       </c>
       <c r="F39" s="1">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G39" s="1">
-        <v>48</v>
-      </c>
-      <c r="H39" s="2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I39" s="2">
-        <v>5.92</v>
+        <v>33</v>
       </c>
       <c r="J39" s="1">
         <v>1</v>
@@ -2130,60 +2130,63 @@
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="E40" s="2">
-        <v>0.72</v>
+        <v>-0.93</v>
       </c>
       <c r="F40" s="1">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G40" s="1">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="H40" s="2">
-        <v>2.2000000000000002</v>
+        <v>6</v>
       </c>
       <c r="I40" s="2">
-        <v>5.68</v>
+        <v>5.25</v>
       </c>
       <c r="J40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
         <v>52</v>
       </c>
       <c r="E41" s="2">
-        <v>-0.17</v>
+        <v>0.72</v>
       </c>
       <c r="F41" s="1">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G41" s="1">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="H41" s="2">
+        <v>2.2000000000000002</v>
       </c>
       <c r="I41" s="2">
-        <v>6.03</v>
+        <v>5.68</v>
       </c>
       <c r="J41" s="1">
         <v>1</v>
@@ -2191,80 +2194,92 @@
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
       <c r="E42" s="2">
-        <v>0.51</v>
+        <v>-0.39</v>
       </c>
       <c r="F42" s="1">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="G42" s="1">
+        <v>70</v>
+      </c>
+      <c r="H42" s="2">
+        <v>6</v>
+      </c>
+      <c r="I42" s="2">
+        <v>5.14</v>
       </c>
       <c r="J42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E43" s="2">
-        <v>-0.39</v>
+        <v>0.6</v>
       </c>
       <c r="F43" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G43" s="1">
-        <v>70</v>
-      </c>
-      <c r="H43" s="2">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="I43" s="2">
-        <v>5.14</v>
+        <v>4.7</v>
       </c>
       <c r="J43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E44" s="2">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F44" s="1">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G44" s="1">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="H44" s="2">
+        <v>4.4000000000000004</v>
       </c>
       <c r="I44" s="2">
-        <v>4.7</v>
+        <v>5.92</v>
       </c>
       <c r="J44" s="1">
         <v>1</v>
@@ -2272,31 +2287,19 @@
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
-      <c r="D45" t="s">
-        <v>41</v>
-      </c>
       <c r="E45" s="2">
-        <v>0.22</v>
+        <v>0.51</v>
       </c>
       <c r="F45" s="1">
-        <v>26</v>
-      </c>
-      <c r="G45" s="1">
-        <v>76</v>
-      </c>
-      <c r="H45" s="2">
-        <v>6.8</v>
-      </c>
-      <c r="I45" s="2">
-        <v>4.9400000000000004</v>
+        <v>35</v>
       </c>
       <c r="J45" s="1">
         <v>1</v>
@@ -2304,117 +2307,132 @@
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
       </c>
       <c r="E46" s="2">
-        <v>0.24</v>
+        <v>-0.17</v>
       </c>
       <c r="F46" s="1">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G46" s="1">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="I46" s="2">
+        <v>6.03</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="F47" s="1">
         <v>25</v>
       </c>
-      <c r="E47" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="F47" s="1">
-        <v>28</v>
-      </c>
-      <c r="G47" s="1">
-        <v>46</v>
-      </c>
       <c r="H47" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="I47" s="2">
-        <v>4.63</v>
-      </c>
-      <c r="J47" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.22</v>
       </c>
       <c r="F48" s="1">
         <v>26</v>
       </c>
+      <c r="G48" s="1">
+        <v>76</v>
+      </c>
+      <c r="H48" s="2">
+        <v>6.8</v>
+      </c>
       <c r="I48" s="2">
-        <v>5.26</v>
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E49" s="2">
-        <v>1.02</v>
+        <v>0.24</v>
       </c>
       <c r="F49" s="1">
-        <v>43</v>
-      </c>
-      <c r="J49" s="1">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="G49" s="1">
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E50" s="2">
-        <v>0.15</v>
+        <v>0.51</v>
       </c>
       <c r="F50" s="1">
         <v>28</v>
       </c>
+      <c r="G50" s="1">
+        <v>46</v>
+      </c>
+      <c r="H50" s="2">
+        <v>4.3</v>
+      </c>
       <c r="I50" s="2">
-        <v>5.8</v>
+        <v>4.63</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -2422,39 +2440,51 @@
     </row>
     <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E51" s="2">
-        <v>-0.55000000000000004</v>
+        <v>1.02</v>
       </c>
       <c r="F51" s="1">
-        <v>25</v>
-      </c>
-      <c r="H51" s="2">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
       </c>
       <c r="E52" s="2">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="F52" s="1">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="G52" s="1">
+        <v>18</v>
+      </c>
+      <c r="H52" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="I52" s="2">
+        <v>5.54</v>
       </c>
       <c r="J52" s="1">
         <v>1</v>
@@ -2462,19 +2492,25 @@
     </row>
     <row r="53" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>34</v>
       </c>
       <c r="E53" s="2">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="F53" s="1">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="I53" s="2">
+        <v>5.8</v>
       </c>
       <c r="J53" s="1">
         <v>1</v>
@@ -2482,258 +2518,237 @@
     </row>
     <row r="54" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" s="2">
-        <v>-0.68</v>
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
       </c>
       <c r="F54" s="1">
-        <v>25</v>
-      </c>
-      <c r="H54" s="2">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="I54" s="2">
+        <v>5.26</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
       <c r="E55" s="2">
-        <v>-1.17</v>
+        <v>0.45</v>
       </c>
       <c r="F55" s="1">
-        <v>24</v>
-      </c>
-      <c r="G55" s="1">
-        <v>60</v>
+        <v>29</v>
+      </c>
+      <c r="J55" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="E56" s="2">
-        <v>0.59</v>
+        <v>-0.68</v>
       </c>
       <c r="F56" s="1">
-        <v>36</v>
-      </c>
-      <c r="G56" s="1">
-        <v>26</v>
-      </c>
-      <c r="I56" s="2">
-        <v>5.51</v>
-      </c>
-      <c r="J56" s="1">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="H56" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
       <c r="E57" s="2">
-        <v>-0.38</v>
+        <v>-1.17</v>
       </c>
       <c r="F57" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G57" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E58" s="2">
-        <v>0.26</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="F58" s="1">
-        <v>37</v>
-      </c>
-      <c r="G58" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H58" s="2">
         <v>4</v>
       </c>
-      <c r="I58" s="2">
-        <v>5.71</v>
-      </c>
-      <c r="J58" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
         <v>20</v>
       </c>
-      <c r="D59" t="s">
-        <v>34</v>
-      </c>
       <c r="E59" s="2">
-        <v>0.7</v>
+        <v>0.12</v>
       </c>
       <c r="F59" s="1">
-        <v>37</v>
-      </c>
-      <c r="G59" s="1">
-        <v>46</v>
-      </c>
-      <c r="I59" s="2">
-        <v>6.37</v>
+        <v>32</v>
+      </c>
+      <c r="J59" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>74</v>
+        <v>52</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0.59</v>
       </c>
       <c r="F60" s="1">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="G60" s="1">
+        <v>26</v>
       </c>
       <c r="I60" s="2">
-        <v>4.5199999999999996</v>
+        <v>5.51</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>34</v>
       </c>
       <c r="E61" s="2">
-        <v>0.16</v>
+        <v>0.7</v>
       </c>
       <c r="F61" s="1">
-        <v>31</v>
-      </c>
-      <c r="H61" s="2">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="G61" s="1">
+        <v>46</v>
+      </c>
+      <c r="I61" s="2">
+        <v>6.37</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
-      <c r="D62" t="s">
-        <v>10</v>
-      </c>
       <c r="E62" s="2">
-        <v>-0.93</v>
+        <v>-0.38</v>
       </c>
       <c r="F62" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G62" s="1">
-        <v>80</v>
-      </c>
-      <c r="H62" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="I62" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="J62" s="1">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E63" s="2">
-        <v>-1.1599999999999999</v>
+        <v>0.26</v>
       </c>
       <c r="F63" s="1">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G63" s="1">
-        <v>79</v>
+        <v>30</v>
+      </c>
+      <c r="H63" s="2">
+        <v>4</v>
       </c>
       <c r="I63" s="2">
-        <v>3.67</v>
+        <v>5.71</v>
       </c>
       <c r="J63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C64" t="s">
         <v>20</v>
@@ -2741,43 +2756,37 @@
       <c r="D64" t="s">
         <v>74</v>
       </c>
-      <c r="E64" s="2">
-        <v>1.28</v>
-      </c>
       <c r="F64" s="1">
-        <v>47</v>
-      </c>
-      <c r="H64" s="2">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="I64" s="2">
-        <v>5.55</v>
-      </c>
-      <c r="J64" s="1">
-        <v>0</v>
+        <v>4.5199999999999996</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="D65" t="s">
+        <v>74</v>
       </c>
       <c r="E65" s="2">
-        <v>-0.8</v>
+        <v>1.28</v>
       </c>
       <c r="F65" s="1">
-        <v>24</v>
-      </c>
-      <c r="G65" s="1">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="H65" s="2">
-        <v>6.95</v>
+        <v>3</v>
+      </c>
+      <c r="I65" s="2">
+        <v>5.55</v>
       </c>
       <c r="J65" s="1">
         <v>0</v>
@@ -2785,123 +2794,129 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="B66" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="2">
+        <v>-0.93</v>
+      </c>
+      <c r="F66" s="1">
+        <v>24</v>
+      </c>
+      <c r="G66" s="1">
         <v>80</v>
       </c>
-      <c r="C66" t="s">
-        <v>1</v>
-      </c>
-      <c r="E66" s="2">
-        <v>-0.8</v>
-      </c>
-      <c r="F66" s="1">
-        <v>25</v>
-      </c>
       <c r="H66" s="2">
-        <v>5</v>
+        <v>8.5</v>
+      </c>
+      <c r="I66" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E67" s="2">
-        <v>0.06</v>
+        <v>-0.8</v>
       </c>
       <c r="F67" s="1">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G67" s="1">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="H67" s="2">
-        <v>2.2000000000000002</v>
+        <v>6.95</v>
       </c>
       <c r="J67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E68" s="2">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="F68" s="1">
-        <v>40</v>
-      </c>
-      <c r="G68" s="1">
-        <v>11</v>
-      </c>
-      <c r="J68" s="1">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="H68" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
       </c>
       <c r="E69" s="2">
-        <v>0.28999999999999998</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="F69" s="1">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="G69" s="1">
-        <v>16</v>
-      </c>
-      <c r="H69" s="2">
-        <v>2.8</v>
+        <v>79</v>
+      </c>
+      <c r="I69" s="2">
+        <v>3.67</v>
       </c>
       <c r="J69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="E70" s="2">
-        <v>0.59</v>
+        <v>0.12</v>
       </c>
       <c r="F70" s="1">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G70" s="1">
-        <v>32</v>
-      </c>
-      <c r="I70" s="2">
-        <v>6.36</v>
+        <v>11</v>
       </c>
       <c r="J70" s="1">
         <v>1</v>
@@ -2909,31 +2924,25 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C71" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E71" s="2">
-        <v>-0.8</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F71" s="1">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G71" s="1">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="H71" s="2">
-        <v>5</v>
-      </c>
-      <c r="I71" s="2">
-        <v>5.52</v>
+        <v>2.8</v>
       </c>
       <c r="J71" s="1">
         <v>1</v>
@@ -2941,31 +2950,28 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C72" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D72" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E72" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.59</v>
       </c>
       <c r="F72" s="1">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G72" s="1">
-        <v>27</v>
-      </c>
-      <c r="H72" s="2">
-        <v>3.85</v>
+        <v>32</v>
       </c>
       <c r="I72" s="2">
-        <v>5.51</v>
+        <v>6.36</v>
       </c>
       <c r="J72" s="1">
         <v>1</v>
@@ -2973,97 +2979,109 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B73" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E73" s="2">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="F73" s="1">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="G73" s="1">
+        <v>14</v>
       </c>
       <c r="H73" s="2">
-        <v>7</v>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B74" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="E74" s="2">
+        <v>-0.8</v>
       </c>
       <c r="F74" s="1">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="G74" s="1">
+        <v>60</v>
+      </c>
+      <c r="H74" s="2">
+        <v>5</v>
       </c>
       <c r="I74" s="2">
-        <v>5.07</v>
+        <v>5.52</v>
+      </c>
+      <c r="J74" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B75" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E75" s="2">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="F75" s="1">
-        <v>32</v>
-      </c>
-      <c r="G75" s="1">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H75" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="I75" s="2">
-        <v>5.54</v>
-      </c>
-      <c r="J75" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
       </c>
+      <c r="D76" t="s">
+        <v>41</v>
+      </c>
       <c r="E76" s="2">
-        <v>-0.09</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F76" s="1">
+        <v>29</v>
+      </c>
+      <c r="G76" s="1">
         <v>27</v>
       </c>
-      <c r="G76" s="1">
-        <v>30</v>
-      </c>
       <c r="H76" s="2">
-        <v>5</v>
+        <v>3.85</v>
+      </c>
+      <c r="I76" s="2">
+        <v>5.51</v>
       </c>
       <c r="J76" s="1">
         <v>1</v>
@@ -3071,51 +3089,45 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>2</v>
-      </c>
-      <c r="E77" s="2">
-        <v>-0.42</v>
+        <v>34</v>
       </c>
       <c r="F77" s="1">
-        <v>28</v>
-      </c>
-      <c r="G77" s="1">
-        <v>39</v>
-      </c>
-      <c r="H77" s="2">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="I77" s="2">
-        <v>5.63</v>
-      </c>
-      <c r="J77" s="1">
-        <v>1</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="E78" s="2">
-        <v>0.12</v>
+        <v>-0.09</v>
       </c>
       <c r="F78" s="1">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="G78" s="1">
+        <v>30</v>
+      </c>
+      <c r="H78" s="2">
+        <v>5</v>
       </c>
       <c r="J78" s="1">
         <v>1</v>
@@ -3143,31 +3155,31 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B80" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E80" s="2">
-        <v>0.36</v>
+        <v>-0.42</v>
       </c>
       <c r="F80" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G80" s="1">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H80" s="2">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="I80" s="2">
-        <v>5.64</v>
+        <v>5.63</v>
       </c>
       <c r="J80" s="1">
         <v>1</v>
@@ -3175,222 +3187,213 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B81" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
       <c r="E81" s="2">
-        <v>-0.93</v>
+        <v>0.12</v>
       </c>
       <c r="F81" s="1">
-        <v>27</v>
-      </c>
-      <c r="G81" s="1">
-        <v>52</v>
+        <v>37</v>
+      </c>
+      <c r="J81" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E82" s="2">
-        <v>-0.8</v>
+        <v>-0.93</v>
       </c>
       <c r="F82" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G82" s="1">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="H82" s="2">
-        <v>5</v>
+        <v>7.55</v>
       </c>
       <c r="I82" s="2">
-        <v>5.43</v>
+        <v>3.66</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B83" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="F83" s="1">
+        <v>26</v>
+      </c>
+      <c r="G83" s="1">
         <v>20</v>
       </c>
-      <c r="E83" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="F83" s="1">
-        <v>36</v>
-      </c>
-      <c r="G83" s="1">
-        <v>65</v>
-      </c>
       <c r="H83" s="2">
-        <v>5.75</v>
+        <v>3.5</v>
+      </c>
+      <c r="I83" s="2">
+        <v>5.64</v>
       </c>
       <c r="J83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E84" s="2">
-        <v>0.03</v>
+        <v>-0.8</v>
       </c>
       <c r="F84" s="1">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G84" s="1">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="H84" s="2">
-        <v>5.55</v>
+        <v>5</v>
       </c>
       <c r="I84" s="2">
-        <v>5.45</v>
-      </c>
-      <c r="J84" s="1">
-        <v>1</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C85" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E85" s="2">
-        <v>0.7</v>
+        <v>-0.93</v>
       </c>
       <c r="F85" s="1">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G85" s="1">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C86" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="E86" s="2">
-        <v>-0.93</v>
+        <v>0.7</v>
       </c>
       <c r="F86" s="1">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G86" s="1">
-        <v>71</v>
-      </c>
-      <c r="H86" s="2">
-        <v>7.55</v>
-      </c>
-      <c r="I86" s="2">
-        <v>3.66</v>
-      </c>
-      <c r="J86" s="1">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B87" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="C87" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E87" s="2">
-        <v>-1.04</v>
+        <v>0.37</v>
       </c>
       <c r="F87" s="1">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G87" s="1">
-        <v>68</v>
-      </c>
-      <c r="H87" s="2">
-        <v>7.9</v>
+        <v>19</v>
       </c>
       <c r="I87" s="2">
-        <v>3.97</v>
+        <v>5.35</v>
       </c>
       <c r="J87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E88" s="2">
-        <v>0.34</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F88" s="1">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G88" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H88" s="2">
-        <v>3.85</v>
+        <v>3</v>
       </c>
       <c r="I88" s="2">
-        <v>5.59</v>
+        <v>5.7</v>
       </c>
       <c r="J88" s="1">
         <v>1</v>
@@ -3398,19 +3401,31 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B89" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>34</v>
       </c>
       <c r="E89" s="2">
-        <v>0.83</v>
+        <v>0.15</v>
       </c>
       <c r="F89" s="1">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="G89" s="1">
+        <v>37</v>
+      </c>
+      <c r="H89" s="2">
+        <v>3.85</v>
+      </c>
+      <c r="I89" s="2">
+        <v>5.88</v>
       </c>
       <c r="J89" s="1">
         <v>1</v>
@@ -3418,83 +3433,71 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="E90" s="2">
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="F90" s="1">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="G90" s="1">
-        <v>20</v>
-      </c>
-      <c r="H90" s="2">
-        <v>3</v>
-      </c>
-      <c r="I90" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="J90" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B91" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C91" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="D91" t="s">
+        <v>25</v>
       </c>
       <c r="E91" s="2">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="F91" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G91" s="1">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="H91" s="2">
+        <v>3.85</v>
+      </c>
+      <c r="I91" s="2">
+        <v>5.59</v>
+      </c>
+      <c r="J91" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B92" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C92" t="s">
-        <v>1</v>
-      </c>
-      <c r="D92" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E92" s="2">
-        <v>0.15</v>
+        <v>0.83</v>
       </c>
       <c r="F92" s="1">
-        <v>39</v>
-      </c>
-      <c r="G92" s="1">
-        <v>37</v>
-      </c>
-      <c r="H92" s="2">
-        <v>3.85</v>
-      </c>
-      <c r="I92" s="2">
-        <v>5.88</v>
+        <v>40</v>
       </c>
       <c r="J92" s="1">
         <v>1</v>
@@ -3502,74 +3505,83 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B93" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C93" t="s">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
       </c>
       <c r="E93" s="2">
-        <v>-0.37</v>
+        <v>-0.86</v>
       </c>
       <c r="F93" s="1">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="G93" s="1">
+        <v>91</v>
+      </c>
+      <c r="H93" s="2">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="I93" s="2">
+        <v>4.25</v>
       </c>
       <c r="J93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B94" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C94" t="s">
-        <v>22</v>
-      </c>
-      <c r="D94" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E94" s="2">
-        <v>-0.86</v>
+        <v>0.43</v>
       </c>
       <c r="F94" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G94" s="1">
-        <v>91</v>
-      </c>
-      <c r="H94" s="2">
-        <v>9.5500000000000007</v>
-      </c>
-      <c r="I94" s="2">
-        <v>4.25</v>
+        <v>36</v>
       </c>
       <c r="J94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B95" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C95" t="s">
         <v>4</v>
       </c>
+      <c r="D95" t="s">
+        <v>5</v>
+      </c>
       <c r="E95" s="2">
-        <v>0.43</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F95" s="1">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G95" s="1">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="I95" s="2">
+        <v>5.53</v>
       </c>
       <c r="J95" s="1">
         <v>1</v>
@@ -3577,51 +3589,48 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B96" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C96" t="s">
-        <v>4</v>
-      </c>
-      <c r="D96" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E96" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.68</v>
       </c>
       <c r="F96" s="1">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G96" s="1">
-        <v>12</v>
-      </c>
-      <c r="I96" s="2">
-        <v>5.53</v>
-      </c>
-      <c r="J96" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B97" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E97" s="2">
-        <v>0.68</v>
+        <v>0.09</v>
       </c>
       <c r="F97" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G97" s="1">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="H97" s="2">
+        <v>5.75</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -3677,6 +3686,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J99" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J99">
+      <sortCondition ref="A1:A99"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
